--- a/data/trans_dic/P19F$tarde-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19F$tarde-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,58; 37,76</t>
+          <t>25,99; 38,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,55; 43,62</t>
+          <t>29,37; 43,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,78; 38,51</t>
+          <t>29,33; 38,48</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,74; 37,71</t>
+          <t>27,75; 37,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,23; 43,25</t>
+          <t>32,26; 43,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,04; 38,93</t>
+          <t>31,09; 38,5</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,8; 41,5</t>
+          <t>30,49; 40,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,19; 37,17</t>
+          <t>26,89; 36,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,82; 37,4</t>
+          <t>30,27; 37,82</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,12; 39,71</t>
+          <t>29,29; 40,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,05; 35,89</t>
+          <t>25,68; 36,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,15; 36,47</t>
+          <t>29,28; 36,47</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,29; 32,96</t>
+          <t>21,62; 33,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,0; 39,49</t>
+          <t>26,87; 39,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,58; 34,41</t>
+          <t>25,72; 34,17</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,02; 27,71</t>
+          <t>14,83; 27,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,84; 31,45</t>
+          <t>18,69; 30,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,65; 27,95</t>
+          <t>18,98; 27,78</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,63; 30,73</t>
+          <t>16,2; 30,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,99; 36,46</t>
+          <t>21,02; 35,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>20,51; 31,29</t>
+          <t>20,75; 31,26</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>28,43; 33,12</t>
+          <t>28,74; 32,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,82; 34,22</t>
+          <t>29,8; 34,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29,95; 33,01</t>
+          <t>29,6; 32,88</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, se cepilla los dientes por la tarde</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>72107</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>64877</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>136984</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>59542; 88640</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>52360; 76786</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>119460; 156759</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>106256</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>102399</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>208655</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>91086; 122953</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>87680; 117521</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>186536; 231022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>124429</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>104232</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>228661</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>105975; 141916</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>87623; 120432</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>203883; 254722</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>116490</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>101846</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>218336</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>99449; 136969</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>85020; 119301</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>196321; 244548</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>63070</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>86981</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>150051</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>50874; 78633</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>70610; 103334</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>128135; 170203</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>36463</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>46055</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>82518</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>25748; 47188</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>34546; 56984</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>68028; 99551</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>28769</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>52172</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>80941</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>20329; 38605</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>39499; 67528</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>65037; 97967</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1057</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>547584</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>558561</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1106145</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>511174; 586444</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>519259; 596831</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1042418; 1157740</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>